--- a/public/template/PayZakat - Templat Pembayar Zakat.xlsx
+++ b/public/template/PayZakat - Templat Pembayar Zakat.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> No Kad Pengenalan Baru</t>
   </si>
   <si>
     <t xml:space="preserve"> No Kad Pengenalan Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tarikh Lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jantina</t>
   </si>
   <si>
     <t xml:space="preserve"> Negeri Asal</t>
@@ -405,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,27 +411,25 @@
     <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -470,34 +462,28 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/PayZakat - Templat Pembayar Zakat.xlsx
+++ b/public/template/PayZakat - Templat Pembayar Zakat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Git\PayZakat\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Git\payzakat\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"> No Kad Pengenalan Baru</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve"> E-mel</t>
+  </si>
+  <si>
+    <t>Nilai Pembayaran Zakat</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +430,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -484,6 +487,9 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
